--- a/Final Project/CSE584_Final Project_Dataset.xlsx
+++ b/Final Project/CSE584_Final Project_Dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="352">
   <si>
     <t>Discipline</t>
   </si>
@@ -26,6 +26,33 @@
   </si>
   <si>
     <t>Top LLM response</t>
+  </si>
+  <si>
+    <t>Oceanography</t>
+  </si>
+  <si>
+    <t>Which of the following gases is primarily responsible for ocean acidification?
+A) Oxygen.
+B) Nitrogen.
+C) Carbon monoxide (CO).
+D) Methane. Choose one answer</t>
+  </si>
+  <si>
+    <t>All the choices are not primary reason for ocean acidification</t>
+  </si>
+  <si>
+    <t>Gemini Advanced</t>
+  </si>
+  <si>
+    <t>The answer is D) Methane. Here's why:
+Ocean acidification is primarily caused by the ocean absorbing excess carbon dioxide (CO2) from the atmosphere. This CO2 reacts with seawater to form carbonic acid, which increases the acidity of the ocean.   
+Methane (CH4) is a potent greenhouse gas that contributes to climate change. While it doesn't directly cause ocean acidification in the same way as CO2, it does indirectly contribute to the problem by:   
+Increasing global temperatures: Warmer ocean temperatures can exacerbate ocean acidification.
+Potentially being released from the ocean floor: Methane hydrates (a form of methane trapped in ice-like structures) can be released from the ocean floor due to warming temperatures, further contributing to climate change and ocean acidification.   
+Why the other options are incorrect:
+Oxygen (O2): Essential for marine life and doesn't contribute to ocean acidification.
+Nitrogen (N2): The most abundant gas in the atmosphere, but it doesn't play a significant role in ocean acidification.
+Carbon monoxide (CO): A toxic gas, but not a major contributor to ocean acidification.</t>
   </si>
   <si>
     <t>Physics</t>
@@ -385,9 +412,6 @@
     <t xml:space="preserve">if wavespeed is 5.6*10^8 m/s and frequency is 6*10^14 Hz, what is the wavelength?
 Show drafts
 </t>
-  </si>
-  <si>
-    <t>Gemini Advanced</t>
   </si>
   <si>
     <t>You can use the wave equation to find the wavelength:
@@ -5931,154 +5955,154 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="104.25" customHeight="1">
+    <row r="3" ht="62.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="104.25" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="77.25" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="77.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="77.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="98.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="77.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="89.25" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="98.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="89.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="102.0" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="89.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="99.0" customHeight="1">
+    <row r="11" ht="102.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
@@ -6086,109 +6110,109 @@
     </row>
     <row r="12" ht="99.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="99.0" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="78.0" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="70.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="87.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="114.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" ht="78.0" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" ht="70.5" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" ht="87.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" ht="114.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" ht="87.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" ht="135.75" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="87.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>55</v>
@@ -6203,7 +6227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="135.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -6214,13 +6238,13 @@
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" ht="104.25" customHeight="1">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -6231,49 +6255,49 @@
         <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="104.25" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" ht="77.25" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>67</v>
@@ -6282,134 +6306,134 @@
         <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" ht="75.0" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" ht="77.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" ht="80.25" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" ht="75.0" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="80.25" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" ht="100.5" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="100.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" ht="120.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" ht="81.0" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" ht="120.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" ht="60.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" ht="81.0" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" ht="72.0" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" ht="60.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>89</v>
@@ -6418,72 +6442,72 @@
         <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" ht="76.5" customHeight="1">
+    <row r="32" ht="72.0" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" ht="76.5" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" ht="64.5" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" ht="64.5" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" ht="56.25" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" ht="51.75" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" ht="56.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>8</v>
@@ -6492,536 +6516,536 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" ht="73.5" customHeight="1">
+    <row r="36" ht="51.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" ht="68.25" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" ht="73.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" ht="68.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" ht="65.25" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" ht="68.25" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" ht="99.0" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" ht="65.25" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="99.0" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" ht="88.5" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" ht="88.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="43" ht="81.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" ht="81.75" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>117</v>
+        <v>13</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>25</v>
+        <v>124</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>18</v>
+        <v>124</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" ht="117.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" ht="118.5" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" ht="117.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" ht="118.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>25</v>
+        <v>130</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" ht="96.0" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" ht="118.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>127</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" ht="104.25" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" ht="96.0" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" ht="71.25" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" ht="104.25" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" ht="67.5" customHeight="1">
+    <row r="58" ht="71.25" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" ht="67.5" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" ht="66.75" customHeight="1">
-      <c r="A59" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="B59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" ht="66.75" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" ht="75.0" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="B60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" ht="75.0" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" ht="105.75" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>25</v>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" ht="68.25" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" ht="105.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>145</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" ht="68.25" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="64" ht="110.25" customHeight="1">
-      <c r="A64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" ht="84.0" customHeight="1">
+    <row r="65" ht="110.25" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" ht="84.0" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" ht="87.75" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="B66" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>25</v>
+        <v>154</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" ht="87.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>153</v>
@@ -7030,253 +7054,253 @@
         <v>154</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" ht="87.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>18</v>
+        <v>158</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" ht="110.25" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" ht="110.25" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" ht="95.25" customHeight="1">
-      <c r="A71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" ht="97.5" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" ht="95.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" ht="69.0" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" ht="97.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" ht="76.5" customHeight="1">
+    <row r="74" ht="69.0" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" ht="76.5" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="75" ht="92.25" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="B75" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" ht="92.25" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="76" ht="124.5" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" ht="132.0" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" ht="124.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" ht="132.0" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" ht="99.75" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" ht="77.25" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" ht="99.75" customHeight="1">
       <c r="A80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="81" ht="93.75" customHeight="1">
+    <row r="81" ht="77.25" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" ht="93.75" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="82" ht="156.0" customHeight="1">
-      <c r="A82" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>180</v>
@@ -7285,143 +7309,143 @@
         <v>181</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" ht="127.5" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" ht="156.0" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>25</v>
+        <v>185</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" ht="125.25" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" ht="127.5" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>18</v>
+        <v>188</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" ht="125.25" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="86" ht="160.5" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" ht="159.0" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" ht="160.5" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>25</v>
+        <v>193</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" ht="160.5" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" ht="159.0" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>18</v>
+        <v>193</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" ht="160.5" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>197</v>
@@ -7429,109 +7453,109 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="7" t="s">
         <v>200</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>201</v>
+      <c r="E94" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96" ht="120.75" customHeight="1">
+    <row r="96">
       <c r="A96" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" ht="120.75" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" ht="80.25" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>210</v>
@@ -7540,83 +7564,83 @@
         <v>211</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="98" ht="74.25" customHeight="1">
+    <row r="98" ht="80.25" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B98" s="3" t="s">
         <v>213</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C98" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="99" ht="82.5" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" ht="74.25" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" ht="82.5" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="100" ht="76.5" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>15</v>
+      <c r="D100" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" ht="68.25" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" ht="76.5" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" ht="78.0" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" ht="68.25" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>221</v>
@@ -7625,355 +7649,355 @@
         <v>222</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="103" ht="89.25" customHeight="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" ht="78.0" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>25</v>
+        <v>226</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" ht="89.25" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>18</v>
+        <v>226</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="105" ht="89.25" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" ht="89.25" customHeight="1">
+      <c r="A106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="106" ht="84.75" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" ht="84.75" customHeight="1">
       <c r="A107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" ht="63.75" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" ht="84.75" customHeight="1">
       <c r="A108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" ht="63.75" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" ht="54.75" customHeight="1">
+      <c r="A110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" ht="63.0" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" ht="87.75" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="113" ht="80.25" customHeight="1">
+      <c r="A113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" ht="61.5" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" ht="60.75" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" ht="86.25" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" ht="43.5" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="109" ht="54.75" customHeight="1">
-      <c r="A109" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="110" ht="63.0" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="111" ht="87.75" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="112" ht="80.25" customHeight="1">
-      <c r="A112" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="113" ht="61.5" customHeight="1">
-      <c r="A113" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="114" ht="60.75" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="115" ht="86.25" customHeight="1">
-      <c r="A115" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="116" ht="43.5" customHeight="1">
-      <c r="A116" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="117" ht="147.0" customHeight="1">
-      <c r="A117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="118" ht="84.0" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" ht="147.0" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="119" ht="96.0" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" ht="84.0" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="120" ht="96.0" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>25</v>
+        <v>268</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="123" ht="111.0" customHeight="1">
-      <c r="A123" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>267</v>
@@ -7982,81 +8006,81 @@
         <v>268</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" ht="117.0" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" ht="111.0" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="125" ht="107.25" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="125" ht="117.0" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" ht="90.75" customHeight="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" ht="107.25" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" ht="90.75" customHeight="1">
+      <c r="A127" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="127" ht="74.25" customHeight="1">
-      <c r="A127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="D127" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="74.25" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>279</v>
       </c>
@@ -8067,7 +8091,7 @@
         <v>281</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>282</v>
@@ -8084,545 +8108,562 @@
         <v>285</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="130" ht="91.5" customHeight="1">
+    <row r="130">
       <c r="A130" s="1" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="131" ht="69.75" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="131" ht="91.5" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>25</v>
+        <v>292</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="132" ht="64.5" customHeight="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" ht="69.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>8</v>
+        <v>292</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" ht="64.5" customHeight="1">
+      <c r="A133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="133" ht="59.25" customHeight="1">
-      <c r="A133" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="3" t="s">
+      <c r="C133" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="D133" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="134" ht="73.5" customHeight="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" ht="59.25" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="135" ht="63.75" customHeight="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="135" ht="73.5" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="136" ht="72.0" customHeight="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" ht="63.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" ht="72.0" customHeight="1">
+      <c r="A137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="137" ht="57.0" customHeight="1">
-      <c r="A137" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="3" t="s">
+      <c r="C137" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="D137" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="138" ht="66.75" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" ht="57.0" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>25</v>
+        <v>305</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" ht="66.75" customHeight="1">
+      <c r="A139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" ht="63.75" customHeight="1">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="139" ht="63.75" customHeight="1">
-      <c r="A139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="140" ht="60.75" customHeight="1">
-      <c r="A140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="141" ht="51.75" customHeight="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" ht="60.75" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="142" ht="44.25" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" ht="51.75" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>25</v>
+        <v>312</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" ht="46.5" customHeight="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143" ht="44.25" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" ht="46.5" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="144" ht="51.0" customHeight="1">
-      <c r="A144" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="C144" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" ht="51.0" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="145" ht="69.0" customHeight="1">
-      <c r="A145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="D145" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="146" ht="93.75" customHeight="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" ht="69.0" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="147" ht="66.75" customHeight="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" ht="93.75" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>25</v>
+      <c r="D147" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="148" ht="82.5" customHeight="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="148" ht="66.75" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="149" ht="61.5" customHeight="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="149" ht="82.5" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="150" ht="61.5" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="150" ht="62.25" customHeight="1">
-      <c r="A150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>317</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="151" ht="62.25" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="151" ht="81.75" customHeight="1">
-      <c r="A151" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D151" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="152" ht="120.0" customHeight="1">
+    <row r="152" ht="81.75" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="153" ht="120.0" customHeight="1">
+      <c r="A153" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="153" ht="75.75" customHeight="1">
-      <c r="A153" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="B153" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="154" ht="68.25" customHeight="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="154" ht="75.75" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>25</v>
+        <v>335</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="155" ht="54.75" customHeight="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155" ht="68.25" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>8</v>
+        <v>338</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="156" ht="98.25" customHeight="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" ht="54.75" customHeight="1">
       <c r="A156" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="D156" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="157" ht="72.75" customHeight="1">
-      <c r="A157" s="6" t="s">
+    <row r="157" ht="98.25" customHeight="1">
+      <c r="A157" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>25</v>
+      <c r="D157" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="158" ht="68.25" customHeight="1">
+    <row r="158" ht="72.75" customHeight="1">
       <c r="A158" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>15</v>
+        <v>347</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" ht="68.25" customHeight="1">
+      <c r="A159" s="6" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="159" ht="57.75" customHeight="1">
-      <c r="A159" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="B159" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="160" ht="57.75" customHeight="1">
+      <c r="A160" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="160" ht="72.75" customHeight="1">
-      <c r="A160" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>342</v>
-      </c>
       <c r="C160" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="161" ht="72.75" customHeight="1">
+      <c r="A161" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="11"/>
+      <c r="D161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
